--- a/sampledata/Admin Submission/AdminDepartmentSubmission.xlsx
+++ b/sampledata/Admin Submission/AdminDepartmentSubmission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Submissions\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D23DCD-BC72-48F9-B14B-72605C93D28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2AA83B-FFB1-4A79-AFB7-61F47947053F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9555" yWindow="4890" windowWidth="15165" windowHeight="9570" xr2:uid="{0D3F06A0-8368-443F-A550-2B5DB1168174}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>email</t>
   </si>
@@ -45,7 +45,37 @@
     <t>Computer Systems</t>
   </si>
   <si>
-    <t>test2@gmail.com</t>
+    <t>dep1Email</t>
+  </si>
+  <si>
+    <t>dep1</t>
+  </si>
+  <si>
+    <t>dep2Email</t>
+  </si>
+  <si>
+    <t>dep3Email</t>
+  </si>
+  <si>
+    <t>dep4Email</t>
+  </si>
+  <si>
+    <t>dep2</t>
+  </si>
+  <si>
+    <t>dep3</t>
+  </si>
+  <si>
+    <t>dep4</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>Software Engineering</t>
+  </si>
+  <si>
+    <t>test4@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -90,9 +120,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -408,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D586678-8DD4-4835-B9B8-F834BCB1421C}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,21 +464,53 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{3D09B4FE-725C-4A2E-9076-A4FD431B5AF1}"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{11F4A567-2FA2-47FF-B5AD-2EC3BCAAC0EA}"/>
+    <hyperlink ref="A7" r:id="rId2" xr:uid="{1E142662-B5C2-4F1F-979E-BFB9A80B994B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
